--- a/Data/Processed/Angiosperms/missing_powo_ipni/Gesneriaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Gesneriaceae.xlsx
@@ -4502,7 +4502,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -19756,7 +19756,7 @@
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -22814,7 +22814,7 @@
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
@@ -22824,7 +22824,7 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sellowia no. 9: 46. 1958 </t>
+          <t>Sellowia no. 9: 46. 1958</t>
         </is>
       </c>
       <c r="J405" t="b">
@@ -22892,7 +22892,7 @@
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
@@ -22902,7 +22902,7 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Flumin. 261. 1829 [1825 publ. 7 Sep-28 Nov 1829] </t>
+          <t>Fl. Flumin. 261. 1829 [1825 publ. 7 Sep-28 Nov 1829]</t>
         </is>
       </c>
       <c r="J406" t="b">
@@ -22970,7 +22970,7 @@
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
@@ -22980,7 +22980,7 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ark. Bot. 29A(3): 7 (fig. 3.). 1937 </t>
+          <t>Ark. Bot. 29A(3): 7 (fig. 3.). 1937</t>
         </is>
       </c>
       <c r="J407" t="b">
@@ -23048,7 +23048,7 @@
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
@@ -23058,7 +23058,7 @@
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fl. Bras. (Martius) 7: 206. 1869 [1 Aug 1869] </t>
+          <t>Fl. Bras. (Martius) 7: 206. 1869 [1 Aug 1869]</t>
         </is>
       </c>
       <c r="J408" t="b">
@@ -23126,7 +23126,7 @@
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
@@ -23136,7 +23136,7 @@
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 514. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 514. 1911</t>
         </is>
       </c>
       <c r="J409" t="b">
@@ -23204,7 +23204,7 @@
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
@@ -23214,7 +23214,7 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Acad. Roy. Sci. Bruxelles 3: 361. 1836 </t>
+          <t>Bull. Acad. Roy. Sci. Bruxelles 3: 361. 1836</t>
         </is>
       </c>
       <c r="J410" t="b">
@@ -23282,7 +23282,7 @@
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
@@ -23292,7 +23292,7 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 513. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 513. 1911</t>
         </is>
       </c>
       <c r="J411" t="b">
@@ -23360,7 +23360,7 @@
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
@@ -23370,7 +23370,7 @@
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 58(Mém. 3f): 513. 1911 </t>
+          <t>Bull. Soc. Bot. France 58(Mém. 3f): 513. 1911</t>
         </is>
       </c>
       <c r="J412" t="b">
@@ -23438,7 +23438,7 @@
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
@@ -23516,7 +23516,7 @@
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
@@ -23526,7 +23526,7 @@
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 232. 1908 </t>
+          <t>Denkschr. Kaiserl. Akad. Wiss., Wien. Math.-Naturwiss. Kl. 79: 232. 1908</t>
         </is>
       </c>
       <c r="J414" t="b">
@@ -23594,7 +23594,7 @@
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
